--- a/DF/total_mensal_fixed_ESTIMATIVA.xlsx
+++ b/DF/total_mensal_fixed_ESTIMATIVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46492449860\Desktop\extencaoUni\DF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF37F6F-9B32-4113-852B-36A574353EE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892A2638-6157-4AB2-8FE7-D6A18B68D23C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB56C50-FF62-4C38-99E2-568A1DC80133}">
   <dimension ref="A1:EB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="CM1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CR2" sqref="CR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
